--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R211_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +646,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +693,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +739,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +964,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +1011,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1057,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1369,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1392,28 +1416,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1462,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1663,10 +1687,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1710,28 +1734,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
+      <c r="C55" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D55" t="s" s="2">
+      <c r="D55" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1756,28 +1780,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1952,10 +1976,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1999,28 +2023,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2045,28 +2069,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2241,10 +2265,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2288,28 +2312,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2334,28 +2358,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2704,10 +2728,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2751,28 +2775,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2797,28 +2821,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2993,10 +3017,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3040,28 +3064,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3086,28 +3110,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3398,10 +3422,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3445,28 +3469,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3491,28 +3515,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3890,10 +3914,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="2" t="s">
+      <c r="K130" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3937,28 +3961,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3983,28 +4007,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4319,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4366,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4412,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4666,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4713,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4759,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4897,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4944,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4990,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5099,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
